--- a/BD/Projetos e Iniciativas Supply Chain​.xlsx
+++ b/BD/Projetos e Iniciativas Supply Chain​.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="87" documentId="11_92485C45C1F39E42E268565A893E8C18510380CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F3C8416-42BB-4C48-97EF-68631FA68FA8}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="11_92485C45C1F39E42E268565A893E8C18510380CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{607A278C-FD48-4BDE-A20D-3D28A5AC26FF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projetos e Iniciativas SC" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="69">
   <si>
     <t>Projeto</t>
   </si>
@@ -609,8 +609,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,6 +630,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,27 +1103,27 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1132,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D1EBEE-2ABE-4764-84FF-6FCD241A3046}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1146,30 +1148,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1183,7 +1185,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1426,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1DB255-F7DB-4266-ABF4-207BDE755064}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1488,8 +1490,8 @@
       <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
+      <c r="F2" s="17">
+        <v>0.1</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>27</v>
@@ -1698,21 +1700,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B20CAD8-CF3E-421B-BBBF-6973CD35D72F}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">

--- a/BD/Projetos e Iniciativas Supply Chain​.xlsx
+++ b/BD/Projetos e Iniciativas Supply Chain​.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="90" documentId="11_92485C45C1F39E42E268565A893E8C18510380CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{607A278C-FD48-4BDE-A20D-3D28A5AC26FF}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="11_92485C45C1F39E42E268565A893E8C18510380CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC1224DE-A0D6-4553-A069-C8890DBAC5E1}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projetos e Iniciativas SC" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="68">
   <si>
     <t>Projeto</t>
   </si>
@@ -240,23 +240,25 @@
   </si>
   <si>
     <r>
-      <t>Gerente do Projeto</t>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Área do Projeto</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
       </rPr>
       <t>​</t>
     </r>
   </si>
   <si>
     <t>Supply Chain​</t>
-  </si>
-  <si>
-    <t>Alex Brasil ​</t>
   </si>
   <si>
     <t>01/01/2024​</t>
@@ -413,7 +415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +445,11 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -585,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,6 +641,10 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1135,7 +1146,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1151,7 +1162,7 @@
       <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -1165,14 +1176,12 @@
       <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1213,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1233,176 +1242,176 @@
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15">
       <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1426,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1DB255-F7DB-4266-ABF4-207BDE755064}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1447,7 +1456,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1476,206 +1485,209 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="G13" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E8">
@@ -1717,7 +1729,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -1746,147 +1758,147 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="E2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="E4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="G4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
